--- a/Sprint3/WeatherPatternVacationers sprint 3.xlsx
+++ b/Sprint3/WeatherPatternVacationers sprint 3.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyssuser/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="5280" yWindow="460" windowWidth="19680" windowHeight="16140"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>July 3</t>
+  </si>
+  <si>
+    <t>July 4</t>
+  </si>
+  <si>
+    <t>July 5</t>
+  </si>
+  <si>
+    <t>July 6</t>
   </si>
   <si>
     <t>Friday</t>
@@ -84,7 +83,7 @@
     </r>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -177,7 +176,7 @@
     </r>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -214,31 +213,32 @@
   <si>
     <t>The team's "percent capacity" for the upcoming Sprint is displayed in Cell J4, and the number of points (excluding buffer) that the team should bring into the Sprint is shown in Cell J7.</t>
   </si>
-  <si>
-    <t>July 3</t>
-  </si>
-  <si>
-    <t>July 4</t>
-  </si>
-  <si>
-    <t>July 5</t>
-  </si>
-  <si>
-    <t>July 6</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -249,13 +249,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -266,14 +266,14 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <i/>
+      <i val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <b val="1"/>
+      <i val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -288,7 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -303,28 +303,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -333,16 +333,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -351,49 +351,49 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -402,7 +402,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -411,25 +411,25 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -438,16 +438,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,28 +471,28 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,10 +501,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -513,13 +513,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -528,126 +528,129 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="00FCF305"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
-      <rgbColor rgb="00900000"/>
-      <rgbColor rgb="00006411"/>
-      <rgbColor rgb="00000090"/>
-      <rgbColor rgb="0090713A"/>
-      <rgbColor rgb="004600A5"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffff0000"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -773,7 +776,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -782,7 +785,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -791,9 +794,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -865,7 +868,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -873,7 +876,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -892,19 +895,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -922,7 +925,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +951,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -974,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1000,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1143,15 +1146,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1166,15 +1163,15 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1193,7 +1190,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1216,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1320,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,7 +1398,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,7 +1424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1440,15 +1437,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1462,7 +1453,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1481,19 +1472,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1511,7 +1502,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1537,7 +1528,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1563,7 +1554,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1589,7 +1580,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1615,7 +1606,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1641,7 +1632,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1667,7 +1658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1693,7 +1684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1719,7 +1710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1732,70 +1723,67 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV34"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28906" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7344" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7344" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7344" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7344" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7344" style="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" style="1" customWidth="1"/>
-    <col min="10" max="256" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1562" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7344" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7344" style="1" customWidth="1"/>
+    <col min="12" max="256" width="10.7344" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="16" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="C1" t="s" s="4">
         <v>1</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s" s="4">
+        <v>5</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="16" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
+      <c r="B2" t="s" s="6">
+        <v>6</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -1803,30 +1791,30 @@
       <c r="D2" s="8">
         <v>0.5</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>0.6</v>
       </c>
       <c r="G2" s="10">
         <v>0</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
-        <v>3</v>
+      <c r="I2" t="s" s="12">
+        <v>7</v>
       </c>
       <c r="J2" s="13">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18.6</v>
+      </c>
+      <c r="K2" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="16" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
+      <c r="B3" t="s" s="6">
+        <v>9</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -1837,28 +1825,28 @@
       <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>0.6</v>
       </c>
       <c r="G3" s="15">
         <v>0</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="12" t="s">
-        <v>6</v>
+      <c r="I3" t="s" s="12">
+        <v>10</v>
       </c>
       <c r="J3" s="16">
         <f>SUM(C2:G8)</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18.6</v>
+      </c>
+      <c r="K3" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
+      <c r="B4" t="s" s="6">
+        <v>11</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
@@ -1869,15 +1857,15 @@
       <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>0.6</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="17" t="s">
-        <v>8</v>
+      <c r="I4" t="s" s="17">
+        <v>12</v>
       </c>
       <c r="J4" s="18">
         <f>J3/J2</f>
@@ -1885,10 +1873,10 @@
       </c>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
+      <c r="B5" t="s" s="6">
+        <v>13</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -1899,25 +1887,25 @@
       <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>0.6</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="12" t="s">
+      <c r="I5" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="J5" s="20">
         <v>10</v>
       </c>
-      <c r="J5" s="20">
-        <v>13</v>
-      </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="16" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
+      <c r="B6" t="s" s="6">
+        <v>15</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -1928,30 +1916,30 @@
       <c r="E6" s="13">
         <v>1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>0.6</v>
       </c>
       <c r="G6" s="15">
         <v>0</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="12" t="s">
-        <v>12</v>
+      <c r="I6" t="s" s="12">
+        <v>16</v>
       </c>
       <c r="J6" s="21">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="16" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
+      <c r="B7" t="s" s="6">
+        <v>17</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>0.5</v>
       </c>
       <c r="E7" s="13">
@@ -1964,42 +1952,42 @@
         <v>0</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="17" t="s">
-        <v>14</v>
+      <c r="I7" t="s" s="17">
+        <v>18</v>
       </c>
       <c r="J7" s="22">
         <f>J5*(1-J6)*J4</f>
-        <v>7.15</v>
+        <v>7</v>
       </c>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17.5" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="11"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="27"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2012,10 +2000,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="17" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2027,10 +2015,10 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="17" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="12" t="s">
-        <v>16</v>
+      <c r="B12" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2042,10 +2030,10 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="17" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="12" t="s">
-        <v>17</v>
+      <c r="B13" t="s" s="12">
+        <v>21</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2057,10 +2045,10 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="17" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="12" t="s">
-        <v>18</v>
+      <c r="B14" t="s" s="12">
+        <v>22</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2072,10 +2060,10 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="17" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="12" t="s">
-        <v>19</v>
+      <c r="B15" t="s" s="12">
+        <v>23</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2087,7 +2075,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="8" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2100,10 +2088,10 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="17" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="12" t="s">
-        <v>20</v>
+      <c r="B17" t="s" s="12">
+        <v>24</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2115,10 +2103,10 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="17" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="12" t="s">
-        <v>21</v>
+      <c r="B18" t="s" s="12">
+        <v>25</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2130,7 +2118,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="8" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2143,10 +2131,10 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="17" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="12" t="s">
-        <v>22</v>
+      <c r="B20" t="s" s="12">
+        <v>26</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2158,7 +2146,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2171,10 +2159,10 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="17" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
-        <v>23</v>
+      <c r="B22" t="s" s="3">
+        <v>27</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2186,7 +2174,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="8" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
@@ -2199,9 +2187,9 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>24</v>
+    <row r="24" ht="17" customHeight="1">
+      <c r="A24" t="s" s="28">
+        <v>28</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
@@ -2214,12 +2202,12 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30">
+    <row r="25" ht="17" customHeight="1">
+      <c r="A25" s="29">
         <v>1</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>25</v>
+      <c r="B25" t="s" s="12">
+        <v>29</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2231,12 +2219,12 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
+    <row r="26" ht="17" customHeight="1">
+      <c r="A26" s="29">
         <v>2</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>26</v>
+      <c r="B26" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2248,12 +2236,12 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30">
+    <row r="27" ht="17" customHeight="1">
+      <c r="A27" s="29">
         <v>3</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>27</v>
+      <c r="B27" t="s" s="12">
+        <v>31</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2265,7 +2253,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="8" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2278,9 +2266,9 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>28</v>
+    <row r="29" ht="17" customHeight="1">
+      <c r="A29" t="s" s="28">
+        <v>32</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2293,12 +2281,12 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
+    <row r="30" ht="17" customHeight="1">
+      <c r="A30" s="29">
         <v>4</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>29</v>
+      <c r="B30" t="s" s="12">
+        <v>33</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2310,12 +2298,12 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+    <row r="31" ht="17" customHeight="1">
+      <c r="A31" s="29">
         <v>5</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>30</v>
+      <c r="B31" t="s" s="12">
+        <v>34</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2327,10 +2315,10 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="12" t="s">
-        <v>31</v>
+    <row r="32" ht="17" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" t="s" s="12">
+        <v>35</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2342,12 +2330,12 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30">
+    <row r="33" ht="17" customHeight="1">
+      <c r="A33" s="29">
         <v>6</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>32</v>
+      <c r="B33" t="s" s="12">
+        <v>36</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2359,12 +2347,12 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
+    <row r="34" ht="17" customHeight="1">
+      <c r="A34" s="29">
         <v>7</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>33</v>
+      <c r="B34" t="s" s="12">
+        <v>37</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2378,7 +2366,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
